--- a/tests/testthat/fixtures/metadata/metadata_no_timeval.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09169C38-EFB1-47F1-AAC4-F946B984AC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6242AE7-781B-40C2-9ABC-86222EA14EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="13425" windowWidth="17025" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="4" r:id="rId1"/>
+    <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
     <sheet name="Data" sheetId="5" r:id="rId4"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
